--- a/ITI/MHD/AssociationTypeVsRelatesTo.xlsx
+++ b/ITI/MHD/AssociationTypeVsRelatesTo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/MHD/ConceptMap/AssociationTypeVsRelatesTo</t>
+    <t>https://profiles.ihe.net/ITI/MHD/ConceptMap/AssociationTypeVsRelatesTo</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Integrating the Healthcare Enterprise (IHE)</t>
+    <t>IHE IT Infrastructure Technical Committee</t>
   </si>
   <si>
     <t>Contact</t>
@@ -283,7 +283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -379,49 +379,57 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B18" t="s" s="2">
         <v>29</v>
       </c>
     </row>

--- a/ITI/MHD/AssociationTypeVsRelatesTo.xlsx
+++ b/ITI/MHD/AssociationTypeVsRelatesTo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.1.0</t>
+    <t>4.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -92,28 +92,25 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>IHE http://www.ihe.net/Governance/#Intellectual_Property</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
     <t>urn:ihe:iti:2007:AssociationType</t>
   </si>
   <si>
-    <t>Target</t>
+    <t/>
   </si>
   <si>
     <t>http://hl7.org/fhir/document-relationship-type</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>RPLC</t>
@@ -283,7 +280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -413,25 +410,7 @@
       <c r="A16" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>29</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -448,109 +427,113 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>30</v>
-      </c>
       <c r="C1" t="s" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s" s="1">
         <v>28</v>
       </c>
       <c r="E1" t="s" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>32</v>
-      </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>31</v>
+      </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>35</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2"/>
     </row>

--- a/ITI/MHD/AssociationTypeVsRelatesTo.xlsx
+++ b/ITI/MHD/AssociationTypeVsRelatesTo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.0</t>
+    <t>4.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,6 +42,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>AssociationType vs RelatesTo</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -72,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -268,10 +274,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -326,89 +332,93 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
@@ -427,113 +437,113 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="1">
         <v>28</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2"/>
     </row>

--- a/ITI/MHD/AssociationTypeVsRelatesTo.xlsx
+++ b/ITI/MHD/AssociationTypeVsRelatesTo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.1</t>
+    <t>4.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (https://www.ihe.net/ihe_domains/it_infrastructure/)</t>
+  </si>
+  <si>
+    <t>null (iti@ihe.net)</t>
+  </si>
+  <si>
+    <t>IHE IT Infrastructure Technical Committee (iti@ihe.net)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -381,7 +387,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -389,36 +395,36 @@
         <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
@@ -437,113 +443,113 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s" s="1">
         <v>30</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2"/>
     </row>

--- a/ITI/MHD/AssociationTypeVsRelatesTo.xlsx
+++ b/ITI/MHD/AssociationTypeVsRelatesTo.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,7 +84,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
